--- a/Skill Matrix/Process_Controls_Skill_Matrix_Enhanced.xlsx
+++ b/Skill Matrix/Process_Controls_Skill_Matrix_Enhanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GF99\Documentation\Skill Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C1BA54-082D-441E-9709-8BF549BF09A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A8345-B219-42D4-990E-6EE16BFE726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
     <sheet name="Proficiency_Scale" sheetId="4" r:id="rId4"/>
     <sheet name="Skill_Dictionary" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Individual_Assessments!$A$4:$BL$33</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="251">
   <si>
     <t>Process Controls Skill Matrix - Summary Dashboard</t>
   </si>
@@ -566,15 +569,6 @@
     <t>Competency in safety/moc proficiency</t>
   </si>
   <si>
-    <t>Mark Fan</t>
-  </si>
-  <si>
-    <t>Roderick Flores</t>
-  </si>
-  <si>
-    <t>Trey Weber</t>
-  </si>
-  <si>
     <t>PCG Area</t>
   </si>
   <si>
@@ -720,6 +714,72 @@
   </si>
   <si>
     <t>OT</t>
+  </si>
+  <si>
+    <t>Ivanna</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Hime</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Narayan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Kristin</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Roderick</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Mariani</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Ragsdale</t>
+  </si>
+  <si>
+    <t>4/5</t>
   </si>
 </sst>
 </file>
@@ -785,7 +845,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +862,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -856,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -876,9 +942,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1366,13 +1438,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BL30"/>
+  <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11:D28"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,11 +1452,17 @@
     <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="64" width="12" customWidth="1"/>
+    <col min="5" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="64" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="7"/>
@@ -1393,7 +1471,7 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="7"/>
@@ -1483,7 +1561,7 @@
       <c r="BK3" s="9"/>
       <c r="BL3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1679,13 +1757,13 @@
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>93</v>
@@ -1696,7 +1774,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1753,13 +1831,13 @@
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>93</v>
@@ -1770,7 +1848,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1827,13 +1905,13 @@
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>93</v>
@@ -1844,7 +1922,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1901,13 +1979,13 @@
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>93</v>
@@ -1918,7 +1996,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1975,10 +2053,10 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>183</v>
@@ -1992,7 +2070,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2049,13 +2127,13 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>93</v>
@@ -2066,7 +2144,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2123,13 +2201,13 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>93</v>
@@ -2140,7 +2218,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2197,13 +2275,13 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>93</v>
@@ -2214,7 +2292,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2271,13 +2349,13 @@
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>93</v>
@@ -2288,7 +2366,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2345,13 +2423,13 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>93</v>
@@ -2362,7 +2440,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2419,13 +2497,13 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>93</v>
@@ -2436,7 +2514,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2493,13 +2571,13 @@
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>93</v>
@@ -2510,7 +2588,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2567,13 +2645,13 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>93</v>
@@ -2584,7 +2662,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2641,13 +2719,13 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>93</v>
@@ -2658,7 +2736,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2715,13 +2793,13 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>93</v>
@@ -2732,7 +2810,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2789,13 +2867,13 @@
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>93</v>
@@ -2806,7 +2884,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2863,13 +2941,13 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>93</v>
@@ -2880,7 +2958,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2937,13 +3015,13 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>93</v>
@@ -2954,7 +3032,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -3011,87 +3089,205 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
+      <c r="E23" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="15">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="4">
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>3</v>
+      </c>
+      <c r="P23" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>3</v>
+      </c>
+      <c r="R23" s="4">
+        <v>3</v>
+      </c>
+      <c r="S23" s="4">
+        <v>4</v>
+      </c>
+      <c r="T23" s="4">
+        <v>4</v>
+      </c>
+      <c r="U23" s="4">
+        <v>4</v>
+      </c>
+      <c r="V23" s="4">
+        <v>4</v>
+      </c>
+      <c r="W23" s="4">
+        <v>4</v>
+      </c>
+      <c r="X23" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>5</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>3</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>5</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>93</v>
@@ -3102,7 +3298,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -3159,13 +3355,13 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>93</v>
@@ -3176,7 +3372,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -3233,13 +3429,13 @@
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>93</v>
@@ -3250,7 +3446,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3307,13 +3503,13 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>93</v>
@@ -3324,7 +3520,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3384,10 +3580,10 @@
         <v>225</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>93</v>
@@ -3398,7 +3594,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3454,17 +3650,25 @@
       <c r="BL28" s="4"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3520,17 +3724,25 @@
       <c r="BL29" s="4"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3585,7 +3797,1058 @@
       <c r="BK30" s="4"/>
       <c r="BL30" s="4"/>
     </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
+      <c r="BL31" s="4"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+      <c r="BL32" s="4"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+      <c r="BL33" s="4"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4"/>
+      <c r="BL38" s="4"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+      <c r="BL40" s="4"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="4"/>
+      <c r="BL41" s="4"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="4"/>
+      <c r="BI42" s="4"/>
+      <c r="BJ42" s="4"/>
+      <c r="BK42" s="4"/>
+      <c r="BL42" s="4"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="4"/>
+      <c r="BH43" s="4"/>
+      <c r="BI43" s="4"/>
+      <c r="BJ43" s="4"/>
+      <c r="BK43" s="4"/>
+      <c r="BL43" s="4"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="4"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="4"/>
+      <c r="BI44" s="4"/>
+      <c r="BJ44" s="4"/>
+      <c r="BK44" s="4"/>
+      <c r="BL44" s="4"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="4"/>
+      <c r="BH45" s="4"/>
+      <c r="BI45" s="4"/>
+      <c r="BJ45" s="4"/>
+      <c r="BK45" s="4"/>
+      <c r="BL45" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A4:BL33" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BL37">
+      <sortCondition ref="C4:C33"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="12">
     <mergeCell ref="AU3:AY3"/>
     <mergeCell ref="A1:E1"/>
@@ -3612,25 +4875,26 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="12" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="7"/>
@@ -5967,13 +7231,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="3" max="3" width="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -6065,7 +7331,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
